--- a/database_doc/adatbázis-terv.xlsx
+++ b/database_doc/adatbázis-terv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405A9B9-1221-4963-B406-1046FD83117D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76333A-072E-4AB5-9955-756D862F53EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,37 +31,37 @@
     <t>…</t>
   </si>
   <si>
-    <t>termékek</t>
-  </si>
-  <si>
-    <t>darab</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>kategoriaId</t>
-  </si>
-  <si>
-    <t>nev</t>
-  </si>
-  <si>
-    <t>kosar</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
-    <t>termekId</t>
-  </si>
-  <si>
-    <t>vasarlasId</t>
-  </si>
-  <si>
-    <t>mennyiseg</t>
-  </si>
-  <si>
-    <t>kategoria</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>purchaseId</t>
+  </si>
+  <si>
+    <t>quantityId</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>productId</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -686,22 +686,22 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
